--- a/View/Company/McDonalds/Analysis.xlsx
+++ b/View/Company/McDonalds/Analysis.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other\Resume\Target Company\MacDoulds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other\Online Resume\resume\View\Company\McDonalds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Score" sheetId="1" r:id="rId1"/>
+    <sheet name="Ranking" sheetId="2" r:id="rId2"/>
+    <sheet name="Traffic" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="List" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="115">
   <si>
     <t>KFC</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,6 +192,329 @@
   </si>
   <si>
     <t>Credit Member Maintenance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Platform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Target App</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover Service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conversion Ratio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Conversion Reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Domain Type</t>
+  </si>
+  <si>
+    <t>Traffic Carrier Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Public</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay Red Pack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influencer</t>
+  </si>
+  <si>
+    <t>Influencer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official Site/App</t>
+  </si>
+  <si>
+    <t>Official Site/App</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official Live</t>
+  </si>
+  <si>
+    <t>Official Live</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiktok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiktok-mini program "麦乐送“</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eat In</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take Away</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official Ads</t>
+  </si>
+  <si>
+    <t>Official Ads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid Traffic or not</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official Video Ads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official Screen Ads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural/
+Offline/
+Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Almost None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiktok-mini program "麦乐送“
+Wechat mini program "麦当劳"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wechat mini program "麦当劳"
+Alipay mini program "麦当劳"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broadcast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid Percentage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has Placed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiktok-mini program "麦乐送“
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titok</t>
+  </si>
+  <si>
+    <t>Foucs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wechat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaohongshu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Exporsure
+Precise Target
+Large Scale
+Nice Conversion
+Offline Store Lift Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coupon &amp; Discount Exposure
+Brand Union Campaign
+Traffic Tag Analysis&amp;Precise Segement&amp; Precise Scence Interaction
+Membership Credit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Offline Store Conversion
+Private Traffic Operation
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Products Promotion  
+New Campaigns Promotion
+Series Product Leads
+Teach user about McDonald food culture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get New Leads 
+Teach More Knowledge
+Prepare and Enhance Future Brand Image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintain Fans to mini program
+Convert Buyers to loyal members</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Themed Brand 
+Themed Campaign
+Themed Products
+Themed Combinations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen Ads in top apps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini Program "麦乐送“
+Doudian Coupons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini Program "麦当劳“ especially member center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wechat Mini Program "麦当劳”
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wechat Mini Program "麦当劳”
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline Alipay RedPack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Pack Discount Conversion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discounts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alipay  Mini Program "麦当劳”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other Media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot Sales Product Discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Traffic Normal Exposure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Paid Percentage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%-70%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%-50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%-40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-30%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,78 +786,102 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -541,26 +891,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2364,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -2385,50 +2717,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="3" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
@@ -2747,751 +3079,751 @@
     </row>
     <row r="11" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>7</v>
       </c>
-      <c r="E12" s="23">
-        <v>6</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="19">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
         <v>9</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="A13" s="32"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10">
         <v>7</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <v>5</v>
       </c>
-      <c r="F13" s="14">
-        <v>8</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="11">
+        <v>8</v>
+      </c>
+      <c r="G13" s="10">
         <v>3</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13">
-        <v>6</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="D14" s="10">
+        <v>6</v>
+      </c>
+      <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>10</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>4</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
         <v>7</v>
       </c>
-      <c r="E15" s="25">
-        <v>6</v>
-      </c>
-      <c r="F15" s="18">
-        <v>8</v>
-      </c>
-      <c r="G15" s="17">
+      <c r="E15" s="21">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14">
+        <v>8</v>
+      </c>
+      <c r="G15" s="13">
         <v>5</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="A17" s="32"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
         <v>7</v>
       </c>
-      <c r="E17" s="24">
-        <v>6</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="20">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10">
         <v>9</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <v>5</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="13">
-        <v>6</v>
-      </c>
-      <c r="E18" s="24">
-        <v>6</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="D18" s="10">
+        <v>6</v>
+      </c>
+      <c r="E18" s="20">
+        <v>6</v>
+      </c>
+      <c r="F18" s="10">
         <v>7</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <v>5</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="13">
         <v>7</v>
       </c>
-      <c r="E19" s="25">
-        <v>6</v>
-      </c>
-      <c r="F19" s="17">
-        <v>8</v>
-      </c>
-      <c r="G19" s="17">
+      <c r="E19" s="21">
+        <v>6</v>
+      </c>
+      <c r="F19" s="13">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13">
         <v>4</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>9</v>
       </c>
-      <c r="E20" s="23">
-        <v>8</v>
-      </c>
-      <c r="F20" s="9">
-        <v>8</v>
-      </c>
-      <c r="G20" s="9">
-        <v>6</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="E20" s="19">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7">
+        <v>8</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6</v>
+      </c>
+      <c r="H20" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="14">
-        <v>8</v>
-      </c>
-      <c r="E21" s="24">
+      <c r="A21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="11">
+        <v>8</v>
+      </c>
+      <c r="E21" s="20">
         <v>5</v>
       </c>
-      <c r="F21" s="13">
-        <v>6</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F21" s="10">
+        <v>6</v>
+      </c>
+      <c r="G21" s="10">
         <v>5</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="14">
-        <v>8</v>
-      </c>
-      <c r="E22" s="24">
-        <v>8</v>
-      </c>
-      <c r="F22" s="13">
-        <v>8</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="D22" s="11">
+        <v>8</v>
+      </c>
+      <c r="E22" s="20">
+        <v>8</v>
+      </c>
+      <c r="F22" s="10">
+        <v>8</v>
+      </c>
+      <c r="G22" s="10">
         <v>5</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="18">
-        <v>8</v>
-      </c>
-      <c r="E23" s="25">
-        <v>6</v>
-      </c>
-      <c r="F23" s="17">
+      <c r="D23" s="14">
+        <v>8</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6</v>
+      </c>
+      <c r="F23" s="13">
         <v>7</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="13">
         <v>4</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="9">
-        <v>8</v>
-      </c>
-      <c r="E24" s="23">
-        <v>6</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="D24" s="7">
+        <v>8</v>
+      </c>
+      <c r="E24" s="19">
+        <v>6</v>
+      </c>
+      <c r="F24" s="8">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>4</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="A25" s="32"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10">
         <v>9</v>
       </c>
-      <c r="E25" s="24">
-        <v>8</v>
-      </c>
-      <c r="F25" s="14">
+      <c r="E25" s="20">
+        <v>8</v>
+      </c>
+      <c r="F25" s="11">
         <v>9</v>
       </c>
-      <c r="G25" s="13">
-        <v>6</v>
-      </c>
-      <c r="H25" s="15">
+      <c r="G25" s="10">
+        <v>6</v>
+      </c>
+      <c r="H25" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="13">
-        <v>8</v>
-      </c>
-      <c r="E26" s="24">
+      <c r="D26" s="10">
+        <v>8</v>
+      </c>
+      <c r="E26" s="20">
         <v>7</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="11">
         <v>9</v>
       </c>
-      <c r="G26" s="13">
-        <v>6</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="G26" s="10">
+        <v>6</v>
+      </c>
+      <c r="H26" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="13">
         <v>7</v>
       </c>
-      <c r="E27" s="25">
-        <v>6</v>
-      </c>
-      <c r="F27" s="18">
-        <v>8</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="E27" s="21">
+        <v>6</v>
+      </c>
+      <c r="F27" s="14">
+        <v>8</v>
+      </c>
+      <c r="G27" s="13">
         <v>4</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="29">
         <v>7</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="29">
         <v>7</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="29">
         <v>7</v>
       </c>
-      <c r="G29" s="35">
-        <v>6</v>
-      </c>
-      <c r="H29" s="37">
+      <c r="G29" s="29">
+        <v>6</v>
+      </c>
+      <c r="H29" s="33">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="26" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="26">
-        <v>8</v>
-      </c>
-      <c r="E31" s="26">
-        <v>8</v>
-      </c>
-      <c r="F31" s="26">
-        <v>8</v>
-      </c>
-      <c r="G31" s="26">
+      <c r="D31" s="30">
+        <v>8</v>
+      </c>
+      <c r="E31" s="30">
+        <v>8</v>
+      </c>
+      <c r="F31" s="30">
+        <v>8</v>
+      </c>
+      <c r="G31" s="30">
         <v>4</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="10">
         <v>7</v>
       </c>
-      <c r="E34" s="24">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13">
+      <c r="E34" s="20">
+        <v>6</v>
+      </c>
+      <c r="F34" s="10">
         <v>9</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="10">
         <v>5</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="13">
-        <v>6</v>
-      </c>
-      <c r="E35" s="24">
-        <v>6</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="D35" s="10">
+        <v>6</v>
+      </c>
+      <c r="E35" s="20">
+        <v>6</v>
+      </c>
+      <c r="F35" s="10">
         <v>7</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="10">
         <v>5</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="13">
         <v>7</v>
       </c>
-      <c r="E36" s="25">
-        <v>6</v>
-      </c>
-      <c r="F36" s="17">
-        <v>8</v>
-      </c>
-      <c r="G36" s="17">
+      <c r="E36" s="21">
+        <v>6</v>
+      </c>
+      <c r="F36" s="13">
+        <v>8</v>
+      </c>
+      <c r="G36" s="13">
         <v>4</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>9</v>
       </c>
-      <c r="E37" s="23">
-        <v>8</v>
-      </c>
-      <c r="F37" s="9">
-        <v>8</v>
-      </c>
-      <c r="G37" s="9">
-        <v>6</v>
-      </c>
-      <c r="H37" s="11">
+      <c r="E37" s="19">
+        <v>8</v>
+      </c>
+      <c r="F37" s="7">
+        <v>8</v>
+      </c>
+      <c r="G37" s="7">
+        <v>6</v>
+      </c>
+      <c r="H37" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="14">
-        <v>8</v>
-      </c>
-      <c r="E38" s="24">
+      <c r="D38" s="11">
+        <v>8</v>
+      </c>
+      <c r="E38" s="20">
         <v>5</v>
       </c>
-      <c r="F38" s="13">
-        <v>6</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="10">
+        <v>6</v>
+      </c>
+      <c r="G38" s="10">
         <v>5</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="14">
-        <v>8</v>
-      </c>
-      <c r="E39" s="24">
-        <v>8</v>
-      </c>
-      <c r="F39" s="13">
-        <v>8</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="D39" s="11">
+        <v>8</v>
+      </c>
+      <c r="E39" s="20">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10">
+        <v>8</v>
+      </c>
+      <c r="G39" s="10">
         <v>5</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="9">
-        <v>8</v>
-      </c>
-      <c r="E40" s="23">
-        <v>6</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="D40" s="7">
+        <v>8</v>
+      </c>
+      <c r="E40" s="19">
+        <v>6</v>
+      </c>
+      <c r="F40" s="8">
         <v>10</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="7">
         <v>4</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="10">
         <v>9</v>
       </c>
-      <c r="E41" s="24">
-        <v>8</v>
-      </c>
-      <c r="F41" s="14">
+      <c r="E41" s="20">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11">
         <v>9</v>
       </c>
-      <c r="G41" s="13">
-        <v>6</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="G41" s="10">
+        <v>6</v>
+      </c>
+      <c r="H41" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="13">
-        <v>8</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="D42" s="10">
+        <v>8</v>
+      </c>
+      <c r="E42" s="20">
         <v>7</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="11">
         <v>9</v>
       </c>
-      <c r="G42" s="13">
-        <v>6</v>
-      </c>
-      <c r="H42" s="15">
+      <c r="G42" s="10">
+        <v>6</v>
+      </c>
+      <c r="H42" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="13">
         <v>7</v>
       </c>
-      <c r="E43" s="25">
-        <v>6</v>
-      </c>
-      <c r="F43" s="18">
-        <v>8</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="E43" s="21">
+        <v>6</v>
+      </c>
+      <c r="F43" s="14">
+        <v>8</v>
+      </c>
+      <c r="G43" s="13">
         <v>4</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="15">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D1:S1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A29:A43"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A29:A43"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D1:S1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3514,125 +3846,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3649,4 +3981,495 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="9.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="11.21875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1 D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$B$1:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1 B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>